--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABF/20/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABF/20/seed5/result_data_RandomForest.xlsx
@@ -482,7 +482,7 @@
         <v>-21.67</v>
       </c>
       <c r="B3" t="n">
-        <v>5.887099999999993</v>
+        <v>5.765799999999992</v>
       </c>
       <c r="C3" t="n">
         <v>-9.76</v>
@@ -499,7 +499,7 @@
         <v>-22.38</v>
       </c>
       <c r="B4" t="n">
-        <v>4.682400000000004</v>
+        <v>4.666300000000003</v>
       </c>
       <c r="C4" t="n">
         <v>-11.3</v>
@@ -542,7 +542,7 @@
         <v>-8.59</v>
       </c>
       <c r="E6" t="n">
-        <v>12.1848</v>
+        <v>12.3078</v>
       </c>
     </row>
     <row r="7">
@@ -550,7 +550,7 @@
         <v>-21.21</v>
       </c>
       <c r="B7" t="n">
-        <v>5.302600000000005</v>
+        <v>5.709700000000002</v>
       </c>
       <c r="C7" t="n">
         <v>-10.59</v>
@@ -559,7 +559,7 @@
         <v>-9.31</v>
       </c>
       <c r="E7" t="n">
-        <v>11.94359999999999</v>
+        <v>12.32499999999999</v>
       </c>
     </row>
     <row r="8">
@@ -567,7 +567,7 @@
         <v>-21.48</v>
       </c>
       <c r="B8" t="n">
-        <v>5.916199999999998</v>
+        <v>5.638299999999991</v>
       </c>
       <c r="C8" t="n">
         <v>-11.02</v>
@@ -576,7 +576,7 @@
         <v>-7.09</v>
       </c>
       <c r="E8" t="n">
-        <v>13.48910000000001</v>
+        <v>13.3638</v>
       </c>
     </row>
     <row r="9">
@@ -615,7 +615,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-21.83000000000002</v>
+        <v>-21.81040000000002</v>
       </c>
       <c r="B11" t="n">
         <v>6.01</v>
@@ -632,10 +632,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-22.56330000000001</v>
+        <v>-22.7628</v>
       </c>
       <c r="B12" t="n">
-        <v>6.0961</v>
+        <v>6.219599999999998</v>
       </c>
       <c r="C12" t="n">
         <v>-15.79</v>
@@ -669,7 +669,7 @@
         <v>-20.07</v>
       </c>
       <c r="B14" t="n">
-        <v>9.053400000000005</v>
+        <v>8.652400000000005</v>
       </c>
       <c r="C14" t="n">
         <v>-11.89</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-21.41800000000002</v>
+        <v>-21.44880000000002</v>
       </c>
       <c r="B15" t="n">
         <v>5.53</v>
@@ -763,7 +763,7 @@
         <v>-8.470000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>12.7926</v>
+        <v>12.8739</v>
       </c>
     </row>
     <row r="20">
@@ -797,7 +797,7 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>12.82329999999999</v>
+        <v>12.6899</v>
       </c>
     </row>
     <row r="22">
@@ -805,7 +805,7 @@
         <v>-20.95</v>
       </c>
       <c r="B22" t="n">
-        <v>5.252300000000003</v>
+        <v>5.194100000000002</v>
       </c>
       <c r="C22" t="n">
         <v>-10.65</v>
@@ -848,7 +848,7 @@
         <v>-9.24</v>
       </c>
       <c r="E24" t="n">
-        <v>12.30079999999999</v>
+        <v>12.76329999999999</v>
       </c>
     </row>
     <row r="25">
@@ -865,7 +865,7 @@
         <v>-7.71</v>
       </c>
       <c r="E25" t="n">
-        <v>12.5936</v>
+        <v>12.995</v>
       </c>
     </row>
   </sheetData>
